--- a/myanmarentreprogrammer/MyBlogTopicPlan.xlsx
+++ b/myanmarentreprogrammer/MyBlogTopicPlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myanmarsimpleprogrammer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myanmarentreprogrammer-docs\maynmarentreprogrammer-docs\myanmarentreprogrammer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 + 2018" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017 + 2018'!$B$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017 + 2018'!$B$2:$D$62</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="157">
   <si>
     <t>No</t>
   </si>
@@ -511,6 +511,9 @@
   <si>
     <t>A junior programmer guide to common problems and how to solve
 5 common problems and solutions I wish I would have know when I started my programming career</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/pulse/20130318103912-15077789-25-quotes-to-inspire-you-to-become-a-better-leader</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1701,7 +1705,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2217,7 +2221,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2225,7 +2229,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2233,7 +2237,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2362,7 +2366,13 @@
       <c r="G96" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:D30"/>
+  <autoFilter ref="B2:D62">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Notyet"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
       <formula>"Finished"</formula>
@@ -2666,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R37"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,6 +2687,11 @@
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>27</v>

--- a/myanmarentreprogrammer/MyBlogTopicPlan.xlsx
+++ b/myanmarentreprogrammer/MyBlogTopicPlan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myanmarentreprogrammer-docs\maynmarentreprogrammer-docs\myanmarentreprogrammer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 + 2018" sheetId="1" r:id="rId1"/>
@@ -1195,7 +1190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,7 +1225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1407,7 +1402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2678,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/myanmarentreprogrammer/MyBlogTopicPlan.xlsx
+++ b/myanmarentreprogrammer/MyBlogTopicPlan.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
   <si>
     <t>No</t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t>https://www.linkedin.com/pulse/20130318103912-15077789-25-quotes-to-inspire-you-to-become-a-better-leader</t>
+  </si>
+  <si>
+    <t>https://simpleprogrammer.com/2017/08/25/7-habits-highly-effective-programmers/</t>
+  </si>
+  <si>
+    <t>7 habbits of highly effective people book reviews as an effective programmer</t>
+  </si>
+  <si>
+    <t>“The ability to simplify means to eliminate the unnecessary so that the necessary may speak.” —Hans Hofmann</t>
   </si>
 </sst>
 </file>
@@ -1418,14 +1427,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="92.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2246,10 +2255,18 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="B63" s="2">
+        <v>57</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
@@ -2374,246 +2391,246 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="81" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="47" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="80" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="46" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="79" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="45" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="78" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="77" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="76" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="42" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="75" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="41" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="74" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="40" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="73" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="39" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="72" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="71" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="37" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="70" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="36" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="69" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="35" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="66" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="34" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="65" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="64" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="32" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="62" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="31" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="61" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="30" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="60" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="29" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="59" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="28" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="58" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="27" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="57" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="26" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="56" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="25" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="55" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="24" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="54" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="23" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="53" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="22" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="52" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D58">
-    <cfRule type="cellIs" dxfId="21" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="51" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="42" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="19" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="41" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="40" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="17" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="16" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="38" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="15" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Finished"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Finished"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Finished"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Finished"</formula>
     </cfRule>
@@ -2656,9 +2673,10 @@
     <hyperlink ref="E60" r:id="rId35"/>
     <hyperlink ref="E61" r:id="rId36"/>
     <hyperlink ref="E62" r:id="rId37"/>
+    <hyperlink ref="E63" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2676,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R37"/>
+  <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,6 +2818,11 @@
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
